--- a/500all/speech_level/speeches_CHRG-114hhrg94608.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94608.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The hearing will come to order, and good afternoon. It is an honor to be here with you today focusing on the fight against human trafficking, an insidious human rights abuse that thrives in an environment of secrecy, of silence, of acquiescence, complacency, and of a mindset that says that it is somehow somebody else's business. The truth of the matter is that combating modern day slavery is everybody's business. We are all in this together. Cooperation and coordination are key to mitigating and someday ending this pervasive cruelty.    Significant progress has been made since I authored landmark legislation known as the Trafficking Victims Protection Act of 2000 to combat sex and labor trafficking in the United States and globally. The Trafficking Victims Protection Act of 2000 and its 2003 and 2005 reauthorizations, which I also sponsored, launched a bold new strategy that included sheltering, political asylum, and other protections for the victims, long jail sentences and asset confiscation for the traffickers, and tough sanctions for governments that failed to meet minimum standards prescribed in the legislation. And for the first time ever, the law recognized, and this was a sea change effort, the exploited women, children, and men, as victims, not as perpetrators of the crime.    Since 2004, the Trafficking Victims Protection Act has resulted in anti-human trafficking task forces in 42 cities across the U.S. These task forces identify potential victims of human trafficking, coordinate local and Federal law enforcement to rescue victims, assist with referrals for victim care, and train law enforcement.    Today's hearing will concentrate on rescue and refuge. In January 2000, I received actionable information that eight Ukrainian women were being exploited by sex traffickers in two bars in Montenegro. The women had been lured there with promises of legitimate work, then forced into prostitution. One desperate victim, however, called her mother for help using the phone of one of the men that was exploiting her. When informed, I immediately called the Prime Minister of Montenegro, Filip Vujanovic, who personally ordered an immediate raid on the bar. As a result, I was told, don't let the local police go. They are on the take. They exploit the women. They are getting money from this nefarious establishment. So he sent his own police to rescue, and as a result, seven of the eight women were rescued and returned to their families in Ukraine. Tragically, the eighth woman was trafficked to Albania prior to the raid.    We now know that organized crime, street gangs, pimps around the world, have expanded into sex trafficking at an alarming rate. It is an extremely lucrative undertaking. A trafficker can make hundreds of thousands of dollars a year off just one victim. Unlike drugs or weapons, a human being can be held captive and sold into sexual slavery over and over and over again, turned into a commodity. Pornography and the devaluation of women are helping to drive this demand. And while our Departments of Justice and Homeland Security work with law enforcement abroad in sting operations to catch American pedophile sex tourists and to rescue victims, where there is a nexus with the United States, they cannot conduct rescue operations or run investigations that fall outside of their jurisdiction.    Nevertheless there are victims, someone's young son or daughter, today being cruelly exploited. Into this gap step nongovernmental rescue operations. Some of the best are staffed by former Navy SEALS, ex-CIA agents, and even the occasional sitting member of a State Government. That is what we will hear about today, from witnesses that include a former CIA agent now involved in rescuing the most vulnerable, as well as from a sitting attorney general. We will hear from a former Member of the Mexican Congress who has fought trafficking her entire career, and we will hear from a victim of trafficking who will also tell us about the importance of refuge and rehabilitation following the rescue.    Operation Underground Railroad has made it their business literally and figuratively to identify children being sex trafficked into other countries and then to partner with the relevant foreign governments and their entities for the rescue and rehab of those children.    Operation Underground Railroad members frequently pose as American sex tourists who enlist traffickers to host sex parties for them. It is a common occurrence in many Latin American nations and it provides the perfect cover for Operation Underground Railroad to lure the traffickers with the children for sale to a preset location and then have the local authorities ready to bust the traffickers as well as to rescue the kids. Operation Underground Railroad also trains the local governments on how to conduct sting operations on traffickers and on the rehabilitative needs of those trafficking victims.    I want to thank our witnesses in advance for their extraordinary and courageous activity on behalf of these vulnerable people, especially kids, especially women who are at risk. You have made an enormous difference. And the country, the United States, the Congress, and the world, really needs to hear what you are doing so that these great actions can be replicated so that more people will be rescued.    I would like to now yield to my good friend and colleague, the gentlelady from California, Ms. Bass.</t>
   </si>
   <si>
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chair, as always for your leadership on this issue and so many other issues. I also want to thank our distinguished guests who took the time to be here with us today. During this hearing I look forward to discussing strategies to address sex trafficking as an issue that we are dealing with here in the United States as well as abroad. And hopefully we can embrace an inclusive approach that acknowledges the international nature of this. It is also important to note, unfortunately, that U.S. nationals are also perpetrators of sex crimes abroad, and I will be particularly interested in hearing about that since I know that a couple of you are involved in that.    We know that the issue affects millions of adults and children, men, and women worldwide who are victimized across a wide range of commercial sex and forced labor schemes. In the United States and in my congressional district and in some cities, the population that is particularly vulnerable, especially the child population, to sex trafficking, are kids in the child welfare system; that is an issue that we are concerned about in my city but we have also worked on in a bipartisan basis.    I had an experience a couple of years ago of having a young foster child, former foster child, who told me that her experience being in the child welfare system actually she felt prepared her to be trafficked because she was so used to being moved around place to place, and people who were involved with her were all paid to be with her. And so we know that this story here is far too common. And in a bipartisan effort to drastically decrease the number of foster youth who experience this horrible exploitation, I have reintroduced legislation called Strengthening the Child Welfare Response to Trafficking Act this year. The legislation passed the House unanimously, and over in the Senate, the language from that bill was put in a bill. And Mr. Chair, you might know that that is coming back our way next week, and we hope to have it on the President's desk very soon.    So I look forward to your testimony today and how we can learn from what you have done around the world and how we can apply your experiences and lessons here in the United States. Thank you.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Emmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chair, and also Ranking Member Bass, for holding this important hearing. I can think of no better place than this subcommittee when it comes to highlighting the atrocious crime of human trafficking. You should both be commended for your leadership on this issue.    When Boko Haram terrorists kidnapped hundreds of teenage girls with the intent of selling them off into slavery, the offense sparked international outrage and inspired action here in the halls of Congress. I want to thank the ranking member and Robin Kelly from this committee, as well as Congresswomen Jackson Lee and Wilson for their persistence and leadership on that front.    Unfortunately not all trafficking cases make the international news. Every day children across the world are taken from their family, from their homes, and sold and enslaved, forced into labor and prostitution against their will. As a father of seven children myself, I cannot begin to fathom the agony their families must be experiencing. The United States, to our collective shame, is not immune to this tragedy. In America alone, hundreds of thousands are trafficked in by transnational drug cartels and criminal organizations. The Justice Department estimates that there are more than 200,000 children across the U.S. that are ``at risk of trafficking.'' Human trafficking is nearly a $30 billion per year criminal enterprise with thousands of innocent children trafficked annually.    I am pleased that Congress, in coordination with the Obama administration, has made great strides in combating trafficking, but there is still much work to be done to help victims improve prosecutions, and prevent men, women, and children from being targeted by predators. This body must do everything within its power and authority to stay one step ahead of those involved in these crimes against humanity. As a Congress we must prioritize funding to support NGOs such as the ones before us today, nonprofits, and State and Federal prosecutors, to see the best practices and methods of prevention, protection, and prosecution.    One way we can combat trafficking is through safe harbor laws that have been instituted across the country, including in my home State of Minnesota. By protecting victims and assisting prosecutors, by pursuing safe harbor laws at the national level, we can better respond to this national crisis. The words spoken here today cannot be merely symbolic gestures. They must be followed by action and constant vigilance. Our children deserve nothing less.    I want to thank our witnesses and the concerned citizens in attendance for your continued efforts in this fight, and with that I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you, Mr. Chairman and Ranking Member, for doing this hearing about such a tragic global situation. It is hard to even fathom. And I would like to reiterate the words of my friend, Mr. Emmer, I think it is time to bring home the African kidnapped girls and, you know, bring home the girls. And I know that is not the topic today, but bring home the girls. And we need to do everything we can on that.    To the guests, you all are doing more than just talking, and I respect action; so thank you for what you all do and the example that you set. And we ought to learn from that, and others ought to learn from that. And to Senorita Karlita, Karla [speaking foreign language].    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Mr. Clawson.    I would like to now introduce our very distinguished witnesses and invite them to testify. Beginning first, it is my very high honor and privilege to recognize and welcome the Honorable Sean Reyes, who today serves as the 21st attorney general of Utah, first appointed and then elected, but first appointed in 2013. Attorney General Reyes has received attention locally and nationally for transforming the Utah attorney general's office and for his very direct involvement in bringing traffickers to justice both in Utah and in South America. Last year, for example he traveled with Operation Underground Railroad to participate in a covert sting where he posed as a bodyguard and translator to help liberate over 100 children from a sex trafficking ring. A public official who doesn't just implement or enforce the law, but actually gets right there face-to-face with the horrific tragedy, preventable tragedy, of sex trafficking and helps to rescue those kids.    We will then hear from Mr. Timothy Ballard who is the founder and CEO of Operation Underground Railroad and serves as its jump team commander for rescue operations. Mr. Ballard has worked at the Central Intelligence Agency and as a special agent for the Department of Homeland Security where he was assigned to the Internet Crimes Against Children Task Force and deployed as an undercover operative for the U.S. Child Sex Tourism Jump Team. He has worked every type of case imaginable in the United States and in multiple foreign countries in the fight to dismantle, disrupt, and bring to justice these terrible child trafficking rings, so thank you.    Then we will hear from Ms. Karla Jacinto Romero who is now 22 years old and a survivor of human trafficking which she suffered from the age of 12 to the age of 16. Today Karla is a happy and successful mother of two beautiful girls, a wife, a student, and an international activist. She has shared her strong message against human trafficking with the Mexican House of Representatives, in the United Kingdom, in Rome, as well as in the Vatican. She helps rebuild the dreams of other human trafficking survivors by both her words and by her example, encouraging them to overcome and to love life and to trust their neighbors again.    We will then hear from Ms. Rosi Orozco who is currently the president of the Commission United vs. Trafficking. Since 1990, she has worked to promote and defend human rights through several associations, particularly in the prevention and treatment of combating human trafficking, crime prevention, social development, and strengthening families. She has also acted as Federal Deputy and the President of the Special Commission for the Fight Against Human Trafficking in the Mexican House of Representatives and was the main proponent of the Law Initiative to Prevent, Punish, and Eradicate the Offenses on Trafficking in Persons and to Protect and Assist the Victims of these crimes, which became law in Mexico. Fellow lawmaker, welcome, and thank you for your leadership. Mr. Attorney General, the floor is yours.</t>
   </si>
   <si>
-    <t>Reyes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Reyes. Thank you, Mr. Chair, members of the committee. It is an absolute honor to be with you today along with these distinguished witnesses to address what I consider to be one of the greatest evils plaguing our world today, specifically child sexual slavery, or the trafficking of children for sex exploitation. As the attorney general of the great State of Utah, I am the highest ranking prosecutor in our State and in this capacity familiar with all manner of crimes. I oversee approximately 80 certified peace officers who serve as investigators for the State, either full-time or from partner agencies that are affiliates of our Internet Crimes Against Children Task Force or Secure Strike Force, both multi-agency teams under the AG's office, focused on combating crimes such as child sexual abuse, exploitation, and child pornography, and disrupting the trafficking of women and children for various reasons, including sex and sex exploitation.    While I believe trafficking of persons is one of the most insidious of the many crimes we confront, sadly it is also one of the least understood and least recognized by the public. And as a father of six children, I want to change that. I know they are looping behind me, or to the side, some of the footage of the mission from October of last year when we went down to Cartagena and two other cities in Colombia; and if I have time, I will address and give you a little bit of context for that as Mr. Ballard may also.    Today in addition to offering my support for the International Megan's Law, H.R. 515, sponsored by the chair and passed by the House, I would also like to paint with a slightly a broader brush in giving texture to more comprehensive issues pertaining to human trafficking. And to that end, let me begin with a few generalized statistics regarding the trafficking of persons. There are currently an estimated 20 million to 30 million modern-day slaves worldwide, people taken or lured into servitude and held against their will. And to put that number in perspective, that is twice as many or more modern-day slaves than there were during the entire transatlantic slave trade from the 16th to 19th centuries, 300 years, which was by most scholarly accounts, 10 million to 13 million people. And I want to be very clear that I am not saying that in any way to diminish the blight that that is on our world history, but only to underscore the severity and pervasiveness of what is going on today.    Human trafficking has become the second most lucrative criminal enterprise internationally, trailing only drug trafficking and ahead now of even arms dealing and counterfeiting. It generates an estimated $150 billion or more annually but is very, very difficult to quantify because of how little is reported. The United Nations Office on Drugs and Crime estimates that 18 percent of the victims are forced into hard labor. Others are conscripted into military servitude, recruited for terrorism, forced into acting as suicide bombers, part of illegal adoptions, or even killed to harvest their organs on the black market. But the overwhelming majority, approximately 80 percent, are forced into sex slavery or sex exploitation. Sex exploitation includes forcing victims into prostitution and compelling victims to commit sex acts for the purpose of creating pornography.    Let me focus a few more statistics particularly on sexual slavery. Trafficking women and children for sexual exploitation is the fastest growing criminal enterprise in the world at this time, this despite the fact that international law and the laws of 134 countries criminalize sex trafficking. About 2 million children are exploited every year in the global commercial sex trade. That number is about 5 million if you are just talking about trafficking in general. Women and girls make up 98 percent of victims of trafficking for sexual exploitation. Anecdotal estimates from survivors are that only 1 in 10 victims caught up in the life ever make it out alive, so that is 90 percent of the victims that will never make it out of the life alive.    According to the U.S. State Department, 600,000 to 800,000 people are trafficked across international borders every year, of which 80 percent are female and half are children. Briefly a quote from a young international sex trafficking victim:        ``They forced me to sleep with as many as 50 customers         a day. I had to give the pimp all of my money. If I did         not earn a set amount, they punished me by removing my         clothes and beating me with a stick until I fainted,         electrocuting me, or cutting me.''    When I first heard experiences such as these, I thought that they were not humanly possible to endure. I am dreadfully sorry to report that I was wrong, having heard now from so many more victims that have corroborated the fact that these children can be raped dozens, if not scores of times, each and every day.    In February 2014, in my own home State of Utah, based on a tip from our immigrant community and a brave man who wore a wire to help us gather evidence, my office arrested Victor Emmanuel Rax, a central American individual, based on evidence of trafficking children, raping numerous young boys, and forcing them to sell his drugs, not only into high schools and junior high schools in our area, but even elementary schools in the Salt Lake County area. Upon arrest we consulted with our Federal law enforcement partners who indicated that they knew Rax, had tried to make a case against him for many years but that witnesses became too intimidated or disappeared in the past. They also indicated Rax had been deported seven times to central America where he had spent time in prison for crimes related to drugs and child sexual abuse and was a member of a notorious international gang. Rax had just come back into the U.S. after each deportation. We were not willing to let him escape again. When we, with the cooperation with our Federal counterparts, made the decision to prosecute Mr. Rax in the U.S. justice system and keep him here rather than deport, we had over 60 victims and witnesses come forward to testify by the time we filed information and charging documents. With such overwhelming evidence, Rax took his own life during the pendency of the trial.    With an International Megan's Law and attendant MOUs and bilateral agreements, Guatemala or El Salvador could have notified the U.S. to warn us of the monster within our midst. Also these countries have the expertise, software, forensic technology, investigative techniques, and prosecutorial experience that we have in the U.S. and that we have readily shared through organizations like Operation Underground Railroad, there may never have been a Victor Rax coming to Utah as they could have handled his case in his country of origin. The Rax case opened my eyes to the violations being perpetrated upon some of our most vulnerable. We have significantly increased in our State the number of investigations and prosecutions of trafficking cases during my administration. Just within the past 2 weeks, I participated with my strike force team on an undercover sting and raid of a massage parlor we believed to be a front for sex trafficking. It was a site that I had personally surveilled over a period of a year with my men.    In Utah we have worked closely with legislators to enhance penalties for trafficking and to treat victims as victims rather than perpetrators. During the Rax case, I heard of an organization based in Utah called Operation Underground Railroad, which was just starting up. When I spoke to the founder, Tim Ballard, I told him I was extremely impressed by three things: One, the emphasis that OUR, the acronym, puts into providing resources, counseling, training, and stability to victims that they liberate from trafficking, and the involvement of groups and people like Elizabeth Smart in their organization.    Two, I was impressed by the focus on training of local law enforcement partners in the various countries where they do operations to give or enhance the skills, techniques, and tools that they need to replicate the operations again and again; and some of the most gratifying moments have been hearing from our law enforcement partners after we have done missions in their countries, telling us that they have had success on their own using the techniques they learned from OUR.    Number three, I told Mr. Ballard the emphasis on letting local partners take credit for their wins and building up credibility with their own people and government were quite impressive. And over the past year, dealing with them, having participated as a partner and member of OUR, I would now add two more quick points. The talent and dedication of Mr. Ballard's team, former successful CIA, HSI, Navy SEAL, Special Forces, and law enforcement personnel, and lastly the effectiveness of the stings they set up.    As you alluded to, Mr. Chair, how do I know how effective the stings are, because I have seen them up close and personally, as you might be watching them on the sides here. And if it comes back to looping, I will perhaps editorialize a bit.    In October 2014, I joined an undercover sting operation in Cartagena, Colombia, organized by Operation Underground Railroad. There were two other simultaneous jumps in Armenia and Metagene, other cities in Colombia, and because of the success that this organization had, and here you are actually seeing on the side the table at which the transaction occurred where we were making the offer to buy and have a sex party. I believe at this very moment our law enforcement partners, CTI, or the Columbian equivalent of the FBI are swooping in to make arrests. I think the timing of some of the clips is not sequential, but this occurred on a group of islands off the coast of Cartagena. We isolated the operation to minimize the danger to anyone else and to maximize the opportunity to cut off escape by the traffickers and to make sure that we could assure the safety of those young girls and boys that we were liberating.    So we had set up on an island there the site for the party. The traffickers believed they were going to come and bring all of these young children to have a sex party with an affluent American businessman. Again, I was playing the role of the translator and bodyguard, the mean and menacing player, which I thought was a bit unfair. You see our law enforcement partners, including Coast Guard, local police, and CTI, very well coordinated. After months of work in excruciatingly detailed cooperation and coordination, we isolated the young ladies and the couple of young boys that were with them in one of those huts and transacted at the table, upon the successful transaction, the large amount of cash in exchange for the sex party. You will see law enforcement here now coming to take us down as we were posing as the sex participants and local law enforcement.    When they finished processing the traffickers, they allowed us to leave to head back to the airport. It was very touching to be able to say good-bye to those young girls knowing that many of them would be heading back home to families who had likely prayed for their safe return for a number of years. In other cases the families had no idea that they were actually being trafficked. They had been duped into thinking they were participating in a modeling agency. And so this is the type of work that Operation Underground Railroad does, very precise with buy-in from the highest levels of our sister nations. It is something that they welcome with the credit all going to their local law enforcement. And I will let Mr. Ballard finish out explaining more about that as I have a few more things to address before I summarize.    You see there, we saw up close the horror and helplessness in the eyes of your girls, ages 10 to 16, after the drugs that the traffickers had given them that very morning to take the edge off of what they were about to experience. And during those very moments now where it is being frozen around that table, they offered up these young girls as if they were desserts to be had for a minimal price. And the fear and, again, helplessness in their eyes was something I will never forget. Contrasted with the sense of liberation just a few minutes later and the hope that they had that they were going to potentially get home and be back safely with their parents.    All I can say is thank goodness that we were the ones there that day instead of real sex tourist predators. Not only did we liberate over 120 innocent girls and boys that day, cumulatively with the three missions that were done simultaneously and reunite them with families and get them much needed resources to start the long road to recovery, but again we trained local law enforcement with investigative techniques and software, and they have called us numerous times to report on their replication of other stings where they have taken down other traffickers and saved even more children.    People ask why the Utah attorney general went to Colombia. My reply, number one, because such a high percentage of those travelling abroad for sex parties are American. Some statistics suggest 80 percent or more of sex tourists may be American. I am embarrassed by that fact, that Americans provide such demand, and I feel a responsibility to remedy the scourge that my fellow countrymen have helped to create.    Secondly, helping to stop human trafficking no matter where it exists is vitally important, and to be clear, no State funds were used. I was not going down in my official capacity as the attorney general of Utah. In fact, nobody knew except for our closest law enforcement partners.    Three, and I think this is critical to this discussion, creating a firewall in countries like Colombia and the many other countries that OUR and other organizations like them have established to prevent future Victor Raxs from entering the shores of the United States and my State of Utah. Through the conference of Western Attorneys General, I and other State AGs have conducted bilateral training with AGs in Mexico and El Salvador to train and coordinate law enforcement resources; and I have met with the Ambassadors of Japan, Peru, the Philippines, and many others, including the Philippine Ambassador just again today to discuss further coordination and training. No leader with whom I have spoken from these countries is opposed to this even greater coordination as envisioned by the International Megan's Law. H.R. 515 also wisely provides for adding to the minimum standards for the principal diplomatic tool that the U.S. employs in this area, the Trafficking in Persons Report by our State Department, with its various tiers and incentives for our sister nations to achieve Tier 1 status.    So in summary, let me say thanks. International Megan's Law just makes sense. Codifying a requirement to alert law enforcement authorities in destination countries will allow our law enforcement partners worldwide to be more vigilant when known American child sex offenders are entering their countries, sometimes for legitimate travel, but too often for repeat offenses of child crimes, sex parties, and sex tours. And it will also provide law enforcement at the Federal, State, and local levels here in the United States, a much better chance to prevent domestic crimes when convicted child sexual abusers from other countries enter U.S. territory.    Fighting human trafficking is not a Republican issue or a Democrat issue. It is a humanitarian issue. It transcends any political differences or ideological divides. Its devastating reach grasps all walks of life and needs a united front for us to find success and give hope to victims and survivors worldwide.    I would urge the Senate and anyone listening to this hearing to support passage of this law and others aimed at curbing and eventually ending child sex trafficking. Thank you.</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t xml:space="preserve">    Mr. Reyes. Thank you, Mr. Chair.</t>
   </si>
   <si>
-    <t>Ballard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ballard. Good afternoon, Mr. Chair, and esteemed members of the subcommittee. Thank you very much for this opportunity.    My name is Tim Ballard. I am the founder and CEO of Operation Underground Railroad. I served for 12 years as a special agent for the Department of Homeland Security, where I served on the Internet Crimes Against Children Task Force and the Sex Tourism Jump Team. I worked as an undercover operative infiltrating organizations at home and abroad who were in the business of abusing children, sexually trafficking them.    In 2006 with the passage of the Adam Walsh Child Protection and Safety Act, Congress opened the doors for U.S. agents to better investigate these cases, especially internationally, and I was one of the first agents assigned to a team that would go out and use our undercover skills to infiltrate these organizations, looking for American travelers who were engaging in sex with children. I was proud to represent the United States in dealing with this horrific issue. However, I often felt helpless by the fact that the vast majority of the child victims that we would find fell outside the purview of the United States or for that matter any developed nation with the tools that could save them. Unless I could tie a U.S. traveler to the case, I would not be able to rescue the children, even the ones that we were able to identify as being victims. It is an issue of the sovereignty. It is outside of the jurisdiction, and I understood that. However, that doesn't mean that we couldn't be doing more.    As an agent, I once had the opportunity to work on a specific case in Colombia. I did my due diligence, and as a team we located children who were being trafficked. And again, we were told that if it was not going to end in a U.S. courtroom, that there were no resources available and there was little we could do except send a reference, and sometimes that is just not enough. And that was discouraging, and I grew frustrated being told no many times, though I understood, clearly understood the reasons why. Because of this I decided to leave and create Operation Underground Railroad, which we did last year.    We since went back to Colombia as a private organization, and as we have talked about and seen on the screens, we were able to pull off one of the largest rescue operations that we know about by setting up sting operations that consisted of ruse child sex parties. We were able to help the Colombians rescue more than 120 victims in 1 day. And to see these children, as young as 11 years old, to look into their eyes as they are tearful, scared to death, and knowing that they were lured out of this by various means.    This group in Colombia had actually hired a beauty queen from Cartagena who could lend credibility to their ruse and bring these children, and they told us as young as 9 years old, they started recruiting them to be models when, in fact, they were being sold and raped for money.    What is most interesting I think about this case in Colombia is that Homeland Security agents ended up arresting a American citizen named Dennis DeJesus. DeJesus caught wind of our fake sex party in Colombia and was heading down from Florida when U.S. agents arrested him. In the end, we got our American. Evidence concluded that DeJesus had produced child pornography and had traveled previously to Colombia in order to engage in sex with minors. DeJesus pled guilty to child sex crimes in a Federal court in Florida just a few weeks ago. This case proved that when engaging the problems of international child sex crimes, there is a good chance that a nexus to the United States will eventually be made.    However, I never would have be able to initiate this investigation as a U.S. agent due to the fact that the U.S. nexus did not appear until the end of the investigation. I also learned that once my team initiated this investigation, along with Columbian authorities, the U.S. Embassy and the Homeland Security Investigations, Bogota office, was more than happy to support the case. However, without our private efforts, the resources or the mandate to pull it off did not exist with United States assets. This is a matter of frustration to many of my former colleagues in the U.S. Government, these U.S. agents. They want to do more. They need resources to do more, more resources to do more.    The current approach by the U.S. Government to international child sex crimes could use some adjusting. More mechanisms need to be put into place so that the U.S. can better engage this problem. Oftentimes it feels like our policies and practices, though not our people or our Government agents, take a position that a foreign problem is simply not a U.S. problem. However, as the DeJesus case proves, when it comes to child sex crimes, this problem is international. And the fact that we are talking about child victims should cause us on a moral level to find ways to remove barriers that prevent international engagement. I have worked with many foreign governments, and I have never seen one that does not desire more U.S. involvement when it comes to these specific crimes against the most vulnerable souls on earth.    Speaking of International Megan's Law, H.R. 515, here is another opportunity, a wonderful opportunity, to attack this problem from a different angle. It will help bridge a serious gap. As a government agent, it was always frustrating to know that minus a crystal ball, it would always be a serious challenge to predict when a child sex traveler would cross our borders to engage in illicit sex with children. As quoted in the bill itself, legitimate studies have concluded that there are close to 2 million children in the world currently in the commercial sex trade; and the bill also points out that a significant amount of these travelers are from the United States. And I for one can testify, I know these stats are true because I have been working in this black market for more than 10 years.    In a sad commentary on our society, the reason our cover story has worked so well and has been so easily bought by perpetrators is due to the fact that we are Americans. These guys, these perpetrators are used to catering to Americans. They are used to selling children to Americans. This is an American problem no matter where on earth the child victim happens to be.    In this country we proudly work under Megan's Law as a means to encourage States to protect children by identifying and monitoring the whereabouts of child sex offenders. As a society we have accepted the fact that convicted sex offenders pose a great risk to children, and so we make their presence known. Of course, the question why would we not offer the same mechanism to our friends overseas? And I understand it has passed three times in the House. It is time to pass it in the Senate, and I hope that your colleagues in the Senate are listening, that they might hurry along.    We might picture a man who has been convicted of raping children in a foreign country. We might imagine that this man is coming for a visit to our towns, to our parks, and our neighborhoods where our children play. Would we not want to know this man's past? Of course, we would. And I assure you that our friends in other countries want this information as well, especially the would-be child victims of the crimes.    Advancing this bill is an opportunity to connect law enforcement agencies around the world by arming them with actionable intelligence that they can use to prevent child sex crimes from occurring. This bill talks about the Angel Watch Center. The Angel Watch Center will be a significant first step in bridging the gap between governments and nongovernment organizations like ours that have real experience in rescuing and rehabilitating victims of trafficking.    One of the great benefits of being an NGO is that it allows greater freedom for anti-child crimes experts to move about the world, plugging quickly into any government jurisdiction and rapidly bringing the tools to fight child crimes into the hands of government officials who need them. We are readily afforded access to information regarding child sex rings that is useful to combat these rings. One of the challenges for us of course is, establishing and maintaining direct relationships with government officials who need and want our services. Through the Angel Watch Center, this problem will be helped. This center will serve as a venue where a public-private partnership can more easily leverage all the intelligence, ideas, tools, and strategies to best protect children at home and abroad.    Speaking for my organization, we have physically rescued hundreds of victims in the last year alone. Advancing H.R. 515 and creating the Angel Watch Center, I believe, could double or triple that number for us, and that is just for us. Add to that the many other NGOs and other government agencies, foreign and domestic, that will participate in the Angel Watch Center, and we will be saving more children than ever before.    Let's not wait any longer to put this bill into law. The children are desperately waiting for us. I know this because I have seen them. Thank you very much for this opportunity.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t xml:space="preserve">    Mr. Smith. Well now I will turn to Karla Jacinto, and I thank you for being here. Thank you.    [The following statement and answers were delivered through an interpreter.]</t>
   </si>
   <si>
-    <t>Jacinto</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jacinto. Mr. Chairman, and members of the subcommittee, thank you for taking the time to listen to my story. My name is Karla Jacinto and today I have a voice, but for more than 4 years of my life from the age of 12, as a little girl whose mother had thrown her out on the streets, open to anyone wanting to take advantage of my vulnerabilities, I fell prey to a professional pimp who after 3 months of wooing and me treating me as a princess, propped me up on a corner and forced me to work the streets for his own gain. For years and years I was coerced, intimidated, threatened, beaten, robbed of my children and emotionally and sexually violated time and time again.    During those years, I was forced to serve every type of fetish imaginable to more than 40,000 clients. Of those, many were foreigners visiting my city looking to have sexual interactions with minors like me.    Please try to put yourself in my shoes, broken, abandoned, violated, hurt, denigrated, and enslaved at a time when I should have been playing with dolls and looking forward to a fun day at school.    Today I am thankful to be able to stand before you as a reintegrated woman. At the age of 16, a man that had become a regular client was able to see beyond the short-term pleasure into the eyes of a broken girl. He helped me escape and I entered from the Fundacion Camino a Casa shelter. There I received the help, care, time, attention and love that I needed to put the broken pieces of my soul back together.    I also met Rosi Orozco, who has helped me grow into the activist I am today. I am 22, and for the last 5 years, my life has been dedicated to raising my voice to anyone willing to hear that we exist, that there are thousands of little girls in my country being used for the pleasure of those who only live for their own desires, economic gain, and exertion of power.    It is up to us, both governments and nongovernment organizations to work together to prevent this crime, punish those who commit them, to look and rescue for those who are already caught in the web, and to provide the care necessary for their healing and reintegration into a healthy society. No one person can do it himself or herself. We are all responsible. We are all affected, and we can all do something.    Today, your people have chosen you to have a position of influence that can truly make a difference. And I hope that my story will help you make some choices that will put a stop to this horrible crime. Thank you.</t>
   </si>
   <si>
@@ -133,9 +112,6 @@
     <t xml:space="preserve">    Mr. Smith. I would note for the record that C-SPAN is here which means that Americans will have the opportunity to hear all of your testimonies. And C-SPAN, you know, is independent. It does not cover every hearing. And I am very grateful that they are here so that your words will be heard by millions of Americans and people around the world. So thank you.    I would like to now introduce our final witness, Rosi Orozco, again a former deputy, author of landmark anti-human trafficking legislation in Mexico, and now the president of the Commission United vs. Trafficking.</t>
   </si>
   <si>
-    <t>Orozco</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Orozco. Mr. Chairman, and members of the subcommittee, thank you for this opportunity. Today I am here out of a profound sense of obligation to focus on the problem of sex trafficking, especially the reality of sexual tourism and child pornography. As you have heard, Karla was a victim of all these crimes at the age of 12. To establish some context, I will--I should explain a little bit of who I am. Thanks to the training I received from your Justice Department here in Washington, DC, 2005, all my life now has been dedicated to fight human trafficking. In all of its forms. But especially that of sexual exploitation of women and, of course, minors.    First, as a Congresswoman from 2009 to 2012 where I was the driving force to establish the general law to prevent, punish, and eradicate the offenses of trafficking in persons and to protect and assist the victims of these crimes. Since the law took effect in 2012, and with the leadership of our President Enrique Pena Nieto, and we have reported more than 200 convictions. Mexico now is the leader in the prosecution of these crimes in all Latin America. More recently, as the president of the NGO Commission United vs. Trafficking, we work in partnership with 97 other NGOs, and we have made sure that we communicate a clear message to every social, political, business, art, and international platform.    In Mexico, human beings are not for sale. And we will fight against anyone that acts against that fact. Today I am here representing every victim of slavery in my country. Sadly, Mexico is a country of origin, transient, and destination of human trafficking of women, men, and children, that are being exploited both in Mexico and the United States. It worries so much to all of our NGOs that there has been some intention in Congress in Mexico trying to knock down the law that protects the human rights of victims and punishes criminals. They will try again in September so we are working as NGOs to protect the good parts of our law, and reform the articles that could be better with some Congresspeople that are very committed against human trafficking.    According to the World Tourism Organization, and the International Labor Organization about 3 million people traveling the world look for travel-related opportunities to participate in sexual acts with children. Sexual tourism affects more than 2 million children that are obligated to prostitute themselves or work in the pornography industry. Sexual tourism is the principal motor behind child sexual exploitation. This is a phenomenon that in recent years has expanded exponentially throughout the world, especially in Asia, and Latin America with Mexico being one of the principal countries affected, especially in the northern border towns and beach cities.    Last year your own Homeland Security Department has situated Mexico as the number one distributor of child pornography in the world. This is largely due to the high demand. Studies demonstrate that most perpetrators are coming from the United States, England, Holland, and Germany. In a study done by the American Bar Association we know that 47 bands of human traffickers were identified in Mexico, of which the most renowned originate in the State of Tlaxcala, and are very well-known for importing their victims to the United States.    I urge you today to make sure that our country will continue working together to put a stop to the atrocity of human trafficking and in all its forms, all forms of human trafficking by refining our laws and committing to communicate and cooperate with each other. We can stop the criminalization of victims, work to push hard to strengthen the law against providers and consumers, ease the path for prosecution of cases, and provide the care that victims and their families needs to rebuild their lives.    We believe that we have been working very well with the Ambassador Anthony Wayne, even his wife is one of the wives of many of the Ambassadors that works with Fundacion Camino a Casa. Karlita herself has met her. The Polaris Project is doing a great job also in a partnership with Mexico now, and you have a great, great Attorney General, Loretta Lynch, who is called in Mexico, the nightmare of the pimps. And we also have a very good Attorney General who will be the nightmare of the pimps soon. She is new in office. And also, we have great police who are committed against these crimes.    In truth, my passion is to work directly with the beautiful girls that have suffered and been rescued from these horrific crimes. I have personally worked with more than 200 victims, shared their stories, and witnessed their struggle as they look to reveal their lives and heal from the worst pain that can be inflicted on a human being, the loss of their freedom and dignity. More than anything, they need all of us to be willing to fight for them and they deserve to be heard. Just think about this. Most of these girls were suffering from poverty, violence, lack of education, when they become targets of criminals that make them also to be their slaves. So when the heroes like the people of Operation Underground Railroad rescue them, as a society, we owe them very much. They didn't have what they deserve in our country. They deserve the food, the house, the security, and education. And then we see them as slaves. Thank you to people like the people that work in OUR, thank you for being heroes in other countries.    We need to work a complete process of reintegration from start to finish until they become successful people that we can all admire, like Karla, who is with me now today. She is a survivor of human trafficking. She was a sex slave between the ages of 12 to 16. Seven years ago, Karla was saved by a client who saw her beauty instead of his lust. And now she is a worldwide activist who has spoke twice in front of Pope Francis, has taken and shared her story with the Duchess of Cornwall, has been with the ex-President Felipe Calderon, and with Queen Noor of Jordan at the Trust Women Conference in London, among many other important people.    We believe that people like Karla, if we don't help them until they are successful, they could kill themselves, or become criminals. When she arrived to the shelter she was full of hate. Now she is full of love. We must work to break the vicious circle of lack of cooperation between authorities and NGOs. Our mistrust of the process that result of people failing to denounce the crime and failure to prosecution. Instead, we must create a virtuous cycle where authorities and NGOs like OUR work together, then provide a special and dedicated care to these teams until they become successful stories. We need to work together with survivors until they become people of admired by society. Only then will more people denounce the crime of human trafficking; only then will more criminals be prosecuted; only then will more victims be freed; and only then less and less people will look for slaves to satisfy their basic instincts.    Please, do not name the clients johns if they were like the clients that Karlita had. They are criminals. They are not johns like they were a nobody. We should treat them like criminals. Thank you so much for hearing us.</t>
   </si>
   <si>
@@ -154,9 +130,6 @@
     <t xml:space="preserve">    Mr. Smith. If I could, just because of time, we are joined by Mia Love, who is obviously from your State, and a very dedicated Member of the Congress, and caring about these issues, and then going to my Democrat colleague, Ms. Jackson Lee.</t>
   </si>
   <si>
-    <t>Love</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Love. I first of all just wanted to say thank you for the invite and letting me know that our attorney general and Mr. Ballard from Operation Underground Railroad is here. The work that they do is so incredibly important. It is something that is very important in the State of Utah, but also for our Nation and around the world.    This is not based on fiscal issues. This is not based on party issues. This is what we have to do, and that is you are protecting life, liberty, and the pursuit of happiness. This is a moral issue, and I wanted to say thank you so much for making this such an important part of what you do.    I have three children, two girls, one boy, and it makes me feel better as a parent knowing that there are some good people out there doing this work and making sure that the predators know that we will not rest. We will be diligent and we are watching them and we are putting them out of business. So from the bottom of my heart as a parent, as an American who cares about the children all around this world, thank you for the work that you do, and thank you for this committee for taking this issue so seriously.</t>
   </si>
   <si>
@@ -166,9 +139,6 @@
     <t xml:space="preserve">    Mr. Smith. Thank you. Ms. Jackson Lee.</t>
   </si>
   <si>
-    <t>Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Well, first of all, let me thank you for the courtesies extended by both the chairman and the ranking member. Thank you so very much. Quickly to the witnesses, let me thank you for your testimony. I just briefly will indicate and ask a question, and then hopefully it will go on the record. I am the ranking member on the Crime Subcommittee. We want to make sure that we have some collaboration with the Foreign Affairs Committee for filling in the holes. So my question would be, there seems to be a gap as to dealing with those who are not connected to the United States. We deal with sex trafficking as the buyer, the victim, and maybe in the State. And so my question would be general, and of course to our Congressperson, how do we deal internationally? How do you make sure if there is an international issue in New Jersey that you either connect Federally or that your laws allow you to reach to be able to ensure that their dastardly works are not impacting New Jerseyites, people from Utah, and fill in that gap that we don't miss those who are trying to do devastating things to children.    Lastly, I always mention Boko Haram, way, way, far away, but, you know the dastardly things they have done by kidnapping girls and we believe it has an international effect. So thank you so very much for your service.</t>
   </si>
   <si>
@@ -203,9 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will resume its sitting, and I do want to apologize again for the delay to our distinguished witnesses as well as to the audience. We are joined by Ann Wagner, a distinguished Member of the House of Representatives from Missouri, who wrote a major bill that has passed the House, is likely to be back in the House after being through the Senate, that criminalizes advertising. And I would like to yield to my good friend and colleague for any comments about her bill which I think will make a huge difference, and any questions that she might have of our panel.</t>
-  </si>
-  <si>
-    <t>Wagner</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Wagner. Well, I thank you, Mr. Chairman, and I thank you for a lifetime of leadership on this issue for all of those giving a voice to the most vulnerable and those who are oftentimes voiceless. I served 4 years as a United States Ambassador in Western Europe, and was very familiar with human trafficking vis-a-vis the international aspect of things. But I will tell you, it wasn't until I came home to my own country in 2009, decided to run for office myself, put my own name on the yard sign, dug into a few things, and realized how prevalent this scourge, this modern-day slavery is, and the prevalence here domestically in our own country.    This is, domestically, a $9.5 billion business. There are upwards, according to the Justice Department, of 300,000, mostly young girls, at risk for this. And we as a Congress, other than reauthorizing the fantastic work that Chairman Smith has done, really had not gotten up to date on some of the new technologies, and the new things going on over the last decade, so I brought this up. I am on the Financial Services Committee. I do a lot in defense, and veterans issues, but this, this, fighting this scourge of human trafficking and sex slavery is a passion of mine. And so we went forward, introduced several pieces of legislation last Congress. I can tell you in January, along with Chairman Smith's bill and many others, we passed 12 pieces of legislation for human trafficking in January out of the House of Representatives. The Senate has taken a number of them up. They worked things out and four of those will be coming back to us next week which we were very excited about; things that will bolster law enforcement, and prosecutors, and give you, sir----</t>
@@ -706,11 +673,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -730,13 +695,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -758,11 +721,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -782,13 +743,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -810,11 +769,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -834,13 +791,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -862,11 +817,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -886,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -914,11 +865,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -940,11 +889,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -964,13 +911,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -990,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1018,11 +961,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1044,11 +985,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1068,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1096,11 +1033,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1122,11 +1057,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1146,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1174,11 +1105,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1200,11 +1129,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1224,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1250,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1278,11 +1201,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1302,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1328,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1356,11 +1273,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1380,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1406,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1434,11 +1345,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1458,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1484,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1510,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1536,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1562,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1588,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1614,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1642,11 +1537,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1668,11 +1561,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1692,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>63</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1718,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1744,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>63</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1770,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1796,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>63</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1822,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1850,11 +1729,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1874,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1900,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1928,11 +1801,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1952,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1980,11 +1849,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2004,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2032,11 +1897,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2056,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2084,11 +1945,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2108,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2134,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2160,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2188,11 +2041,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2212,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2240,11 +2089,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2264,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>63</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2290,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2316,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>63</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2344,11 +2185,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2368,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2396,11 +2233,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2420,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2448,11 +2281,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2472,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2500,11 +2329,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2524,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2552,11 +2377,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94608.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94608.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The hearing will come to order, and good afternoon. It is an honor to be here with you today focusing on the fight against human trafficking, an insidious human rights abuse that thrives in an environment of secrecy, of silence, of acquiescence, complacency, and of a mindset that says that it is somehow somebody else's business. The truth of the matter is that combating modern day slavery is everybody's business. We are all in this together. Cooperation and coordination are key to mitigating and someday ending this pervasive cruelty.    Significant progress has been made since I authored landmark legislation known as the Trafficking Victims Protection Act of 2000 to combat sex and labor trafficking in the United States and globally. The Trafficking Victims Protection Act of 2000 and its 2003 and 2005 reauthorizations, which I also sponsored, launched a bold new strategy that included sheltering, political asylum, and other protections for the victims, long jail sentences and asset confiscation for the traffickers, and tough sanctions for governments that failed to meet minimum standards prescribed in the legislation. And for the first time ever, the law recognized, and this was a sea change effort, the exploited women, children, and men, as victims, not as perpetrators of the crime.    Since 2004, the Trafficking Victims Protection Act has resulted in anti-human trafficking task forces in 42 cities across the U.S. These task forces identify potential victims of human trafficking, coordinate local and Federal law enforcement to rescue victims, assist with referrals for victim care, and train law enforcement.    Today's hearing will concentrate on rescue and refuge. In January 2000, I received actionable information that eight Ukrainian women were being exploited by sex traffickers in two bars in Montenegro. The women had been lured there with promises of legitimate work, then forced into prostitution. One desperate victim, however, called her mother for help using the phone of one of the men that was exploiting her. When informed, I immediately called the Prime Minister of Montenegro, Filip Vujanovic, who personally ordered an immediate raid on the bar. As a result, I was told, don't let the local police go. They are on the take. They exploit the women. They are getting money from this nefarious establishment. So he sent his own police to rescue, and as a result, seven of the eight women were rescued and returned to their families in Ukraine. Tragically, the eighth woman was trafficked to Albania prior to the raid.    We now know that organized crime, street gangs, pimps around the world, have expanded into sex trafficking at an alarming rate. It is an extremely lucrative undertaking. A trafficker can make hundreds of thousands of dollars a year off just one victim. Unlike drugs or weapons, a human being can be held captive and sold into sexual slavery over and over and over again, turned into a commodity. Pornography and the devaluation of women are helping to drive this demand. And while our Departments of Justice and Homeland Security work with law enforcement abroad in sting operations to catch American pedophile sex tourists and to rescue victims, where there is a nexus with the United States, they cannot conduct rescue operations or run investigations that fall outside of their jurisdiction.    Nevertheless there are victims, someone's young son or daughter, today being cruelly exploited. Into this gap step nongovernmental rescue operations. Some of the best are staffed by former Navy SEALS, ex-CIA agents, and even the occasional sitting member of a State Government. That is what we will hear about today, from witnesses that include a former CIA agent now involved in rescuing the most vulnerable, as well as from a sitting attorney general. We will hear from a former Member of the Mexican Congress who has fought trafficking her entire career, and we will hear from a victim of trafficking who will also tell us about the importance of refuge and rehabilitation following the rescue.    Operation Underground Railroad has made it their business literally and figuratively to identify children being sex trafficked into other countries and then to partner with the relevant foreign governments and their entities for the rescue and rehab of those children.    Operation Underground Railroad members frequently pose as American sex tourists who enlist traffickers to host sex parties for them. It is a common occurrence in many Latin American nations and it provides the perfect cover for Operation Underground Railroad to lure the traffickers with the children for sale to a preset location and then have the local authorities ready to bust the traffickers as well as to rescue the kids. Operation Underground Railroad also trains the local governments on how to conduct sting operations on traffickers and on the rehabilitative needs of those trafficking victims.    I want to thank our witnesses in advance for their extraordinary and courageous activity on behalf of these vulnerable people, especially kids, especially women who are at risk. You have made an enormous difference. And the country, the United States, the Congress, and the world, really needs to hear what you are doing so that these great actions can be replicated so that more people will be rescued.    I would like to now yield to my good friend and colleague, the gentlelady from California, Ms. Bass.</t>
   </si>
   <si>
     <t>412404</t>
   </si>
   <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chair, as always for your leadership on this issue and so many other issues. I also want to thank our distinguished guests who took the time to be here with us today. During this hearing I look forward to discussing strategies to address sex trafficking as an issue that we are dealing with here in the United States as well as abroad. And hopefully we can embrace an inclusive approach that acknowledges the international nature of this. It is also important to note, unfortunately, that U.S. nationals are also perpetrators of sex crimes abroad, and I will be particularly interested in hearing about that since I know that a couple of you are involved in that.    We know that the issue affects millions of adults and children, men, and women worldwide who are victimized across a wide range of commercial sex and forced labor schemes. In the United States and in my congressional district and in some cities, the population that is particularly vulnerable, especially the child population, to sex trafficking, are kids in the child welfare system; that is an issue that we are concerned about in my city but we have also worked on in a bipartisan basis.    I had an experience a couple of years ago of having a young foster child, former foster child, who told me that her experience being in the child welfare system actually she felt prepared her to be trafficked because she was so used to being moved around place to place, and people who were involved with her were all paid to be with her. And so we know that this story here is far too common. And in a bipartisan effort to drastically decrease the number of foster youth who experience this horrible exploitation, I have reintroduced legislation called Strengthening the Child Welfare Response to Trafficking Act this year. The legislation passed the House unanimously, and over in the Senate, the language from that bill was put in a bill. And Mr. Chair, you might know that that is coming back our way next week, and we hope to have it on the President's desk very soon.    So I look forward to your testimony today and how we can learn from what you have done around the world and how we can apply your experiences and lessons here in the United States. Thank you.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Emmer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chair, and also Ranking Member Bass, for holding this important hearing. I can think of no better place than this subcommittee when it comes to highlighting the atrocious crime of human trafficking. You should both be commended for your leadership on this issue.    When Boko Haram terrorists kidnapped hundreds of teenage girls with the intent of selling them off into slavery, the offense sparked international outrage and inspired action here in the halls of Congress. I want to thank the ranking member and Robin Kelly from this committee, as well as Congresswomen Jackson Lee and Wilson for their persistence and leadership on that front.    Unfortunately not all trafficking cases make the international news. Every day children across the world are taken from their family, from their homes, and sold and enslaved, forced into labor and prostitution against their will. As a father of seven children myself, I cannot begin to fathom the agony their families must be experiencing. The United States, to our collective shame, is not immune to this tragedy. In America alone, hundreds of thousands are trafficked in by transnational drug cartels and criminal organizations. The Justice Department estimates that there are more than 200,000 children across the U.S. that are ``at risk of trafficking.'' Human trafficking is nearly a $30 billion per year criminal enterprise with thousands of innocent children trafficked annually.    I am pleased that Congress, in coordination with the Obama administration, has made great strides in combating trafficking, but there is still much work to be done to help victims improve prosecutions, and prevent men, women, and children from being targeted by predators. This body must do everything within its power and authority to stay one step ahead of those involved in these crimes against humanity. As a Congress we must prioritize funding to support NGOs such as the ones before us today, nonprofits, and State and Federal prosecutors, to see the best practices and methods of prevention, protection, and prosecution.    One way we can combat trafficking is through safe harbor laws that have been instituted across the country, including in my home State of Minnesota. By protecting victims and assisting prosecutors, by pursuing safe harbor laws at the national level, we can better respond to this national crisis. The words spoken here today cannot be merely symbolic gestures. They must be followed by action and constant vigilance. Our children deserve nothing less.    I want to thank our witnesses and the concerned citizens in attendance for your continued efforts in this fight, and with that I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,12 +94,21 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you, Mr. Chairman and Ranking Member, for doing this hearing about such a tragic global situation. It is hard to even fathom. And I would like to reiterate the words of my friend, Mr. Emmer, I think it is time to bring home the African kidnapped girls and, you know, bring home the girls. And I know that is not the topic today, but bring home the girls. And we need to do everything we can on that.    To the guests, you all are doing more than just talking, and I respect action; so thank you for what you all do and the example that you set. And we ought to learn from that, and others ought to learn from that. And to Senorita Karlita, Karla [speaking foreign language].    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Mr. Clawson.    I would like to now introduce our very distinguished witnesses and invite them to testify. Beginning first, it is my very high honor and privilege to recognize and welcome the Honorable Sean Reyes, who today serves as the 21st attorney general of Utah, first appointed and then elected, but first appointed in 2013. Attorney General Reyes has received attention locally and nationally for transforming the Utah attorney general's office and for his very direct involvement in bringing traffickers to justice both in Utah and in South America. Last year, for example he traveled with Operation Underground Railroad to participate in a covert sting where he posed as a bodyguard and translator to help liberate over 100 children from a sex trafficking ring. A public official who doesn't just implement or enforce the law, but actually gets right there face-to-face with the horrific tragedy, preventable tragedy, of sex trafficking and helps to rescue those kids.    We will then hear from Mr. Timothy Ballard who is the founder and CEO of Operation Underground Railroad and serves as its jump team commander for rescue operations. Mr. Ballard has worked at the Central Intelligence Agency and as a special agent for the Department of Homeland Security where he was assigned to the Internet Crimes Against Children Task Force and deployed as an undercover operative for the U.S. Child Sex Tourism Jump Team. He has worked every type of case imaginable in the United States and in multiple foreign countries in the fight to dismantle, disrupt, and bring to justice these terrible child trafficking rings, so thank you.    Then we will hear from Ms. Karla Jacinto Romero who is now 22 years old and a survivor of human trafficking which she suffered from the age of 12 to the age of 16. Today Karla is a happy and successful mother of two beautiful girls, a wife, a student, and an international activist. She has shared her strong message against human trafficking with the Mexican House of Representatives, in the United Kingdom, in Rome, as well as in the Vatican. She helps rebuild the dreams of other human trafficking survivors by both her words and by her example, encouraging them to overcome and to love life and to trust their neighbors again.    We will then hear from Ms. Rosi Orozco who is currently the president of the Commission United vs. Trafficking. Since 1990, she has worked to promote and defend human rights through several associations, particularly in the prevention and treatment of combating human trafficking, crime prevention, social development, and strengthening families. She has also acted as Federal Deputy and the President of the Special Commission for the Fight Against Human Trafficking in the Mexican House of Representatives and was the main proponent of the Law Initiative to Prevent, Punish, and Eradicate the Offenses on Trafficking in Persons and to Protect and Assist the Victims of these crimes, which became law in Mexico. Fellow lawmaker, welcome, and thank you for your leadership. Mr. Attorney General, the floor is yours.</t>
   </si>
   <si>
+    <t>Reyes</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Reyes. Thank you, Mr. Chair, members of the committee. It is an absolute honor to be with you today along with these distinguished witnesses to address what I consider to be one of the greatest evils plaguing our world today, specifically child sexual slavery, or the trafficking of children for sex exploitation. As the attorney general of the great State of Utah, I am the highest ranking prosecutor in our State and in this capacity familiar with all manner of crimes. I oversee approximately 80 certified peace officers who serve as investigators for the State, either full-time or from partner agencies that are affiliates of our Internet Crimes Against Children Task Force or Secure Strike Force, both multi-agency teams under the AG's office, focused on combating crimes such as child sexual abuse, exploitation, and child pornography, and disrupting the trafficking of women and children for various reasons, including sex and sex exploitation.    While I believe trafficking of persons is one of the most insidious of the many crimes we confront, sadly it is also one of the least understood and least recognized by the public. And as a father of six children, I want to change that. I know they are looping behind me, or to the side, some of the footage of the mission from October of last year when we went down to Cartagena and two other cities in Colombia; and if I have time, I will address and give you a little bit of context for that as Mr. Ballard may also.    Today in addition to offering my support for the International Megan's Law, H.R. 515, sponsored by the chair and passed by the House, I would also like to paint with a slightly a broader brush in giving texture to more comprehensive issues pertaining to human trafficking. And to that end, let me begin with a few generalized statistics regarding the trafficking of persons. There are currently an estimated 20 million to 30 million modern-day slaves worldwide, people taken or lured into servitude and held against their will. And to put that number in perspective, that is twice as many or more modern-day slaves than there were during the entire transatlantic slave trade from the 16th to 19th centuries, 300 years, which was by most scholarly accounts, 10 million to 13 million people. And I want to be very clear that I am not saying that in any way to diminish the blight that that is on our world history, but only to underscore the severity and pervasiveness of what is going on today.    Human trafficking has become the second most lucrative criminal enterprise internationally, trailing only drug trafficking and ahead now of even arms dealing and counterfeiting. It generates an estimated $150 billion or more annually but is very, very difficult to quantify because of how little is reported. The United Nations Office on Drugs and Crime estimates that 18 percent of the victims are forced into hard labor. Others are conscripted into military servitude, recruited for terrorism, forced into acting as suicide bombers, part of illegal adoptions, or even killed to harvest their organs on the black market. But the overwhelming majority, approximately 80 percent, are forced into sex slavery or sex exploitation. Sex exploitation includes forcing victims into prostitution and compelling victims to commit sex acts for the purpose of creating pornography.    Let me focus a few more statistics particularly on sexual slavery. Trafficking women and children for sexual exploitation is the fastest growing criminal enterprise in the world at this time, this despite the fact that international law and the laws of 134 countries criminalize sex trafficking. About 2 million children are exploited every year in the global commercial sex trade. That number is about 5 million if you are just talking about trafficking in general. Women and girls make up 98 percent of victims of trafficking for sexual exploitation. Anecdotal estimates from survivors are that only 1 in 10 victims caught up in the life ever make it out alive, so that is 90 percent of the victims that will never make it out of the life alive.    According to the U.S. State Department, 600,000 to 800,000 people are trafficked across international borders every year, of which 80 percent are female and half are children. Briefly a quote from a young international sex trafficking victim:        ``They forced me to sleep with as many as 50 customers         a day. I had to give the pimp all of my money. If I did         not earn a set amount, they punished me by removing my         clothes and beating me with a stick until I fainted,         electrocuting me, or cutting me.''    When I first heard experiences such as these, I thought that they were not humanly possible to endure. I am dreadfully sorry to report that I was wrong, having heard now from so many more victims that have corroborated the fact that these children can be raped dozens, if not scores of times, each and every day.    In February 2014, in my own home State of Utah, based on a tip from our immigrant community and a brave man who wore a wire to help us gather evidence, my office arrested Victor Emmanuel Rax, a central American individual, based on evidence of trafficking children, raping numerous young boys, and forcing them to sell his drugs, not only into high schools and junior high schools in our area, but even elementary schools in the Salt Lake County area. Upon arrest we consulted with our Federal law enforcement partners who indicated that they knew Rax, had tried to make a case against him for many years but that witnesses became too intimidated or disappeared in the past. They also indicated Rax had been deported seven times to central America where he had spent time in prison for crimes related to drugs and child sexual abuse and was a member of a notorious international gang. Rax had just come back into the U.S. after each deportation. We were not willing to let him escape again. When we, with the cooperation with our Federal counterparts, made the decision to prosecute Mr. Rax in the U.S. justice system and keep him here rather than deport, we had over 60 victims and witnesses come forward to testify by the time we filed information and charging documents. With such overwhelming evidence, Rax took his own life during the pendency of the trial.    With an International Megan's Law and attendant MOUs and bilateral agreements, Guatemala or El Salvador could have notified the U.S. to warn us of the monster within our midst. Also these countries have the expertise, software, forensic technology, investigative techniques, and prosecutorial experience that we have in the U.S. and that we have readily shared through organizations like Operation Underground Railroad, there may never have been a Victor Rax coming to Utah as they could have handled his case in his country of origin. The Rax case opened my eyes to the violations being perpetrated upon some of our most vulnerable. We have significantly increased in our State the number of investigations and prosecutions of trafficking cases during my administration. Just within the past 2 weeks, I participated with my strike force team on an undercover sting and raid of a massage parlor we believed to be a front for sex trafficking. It was a site that I had personally surveilled over a period of a year with my men.    In Utah we have worked closely with legislators to enhance penalties for trafficking and to treat victims as victims rather than perpetrators. During the Rax case, I heard of an organization based in Utah called Operation Underground Railroad, which was just starting up. When I spoke to the founder, Tim Ballard, I told him I was extremely impressed by three things: One, the emphasis that OUR, the acronym, puts into providing resources, counseling, training, and stability to victims that they liberate from trafficking, and the involvement of groups and people like Elizabeth Smart in their organization.    Two, I was impressed by the focus on training of local law enforcement partners in the various countries where they do operations to give or enhance the skills, techniques, and tools that they need to replicate the operations again and again; and some of the most gratifying moments have been hearing from our law enforcement partners after we have done missions in their countries, telling us that they have had success on their own using the techniques they learned from OUR.    Number three, I told Mr. Ballard the emphasis on letting local partners take credit for their wins and building up credibility with their own people and government were quite impressive. And over the past year, dealing with them, having participated as a partner and member of OUR, I would now add two more quick points. The talent and dedication of Mr. Ballard's team, former successful CIA, HSI, Navy SEAL, Special Forces, and law enforcement personnel, and lastly the effectiveness of the stings they set up.    As you alluded to, Mr. Chair, how do I know how effective the stings are, because I have seen them up close and personally, as you might be watching them on the sides here. And if it comes back to looping, I will perhaps editorialize a bit.    In October 2014, I joined an undercover sting operation in Cartagena, Colombia, organized by Operation Underground Railroad. There were two other simultaneous jumps in Armenia and Metagene, other cities in Colombia, and because of the success that this organization had, and here you are actually seeing on the side the table at which the transaction occurred where we were making the offer to buy and have a sex party. I believe at this very moment our law enforcement partners, CTI, or the Columbian equivalent of the FBI are swooping in to make arrests. I think the timing of some of the clips is not sequential, but this occurred on a group of islands off the coast of Cartagena. We isolated the operation to minimize the danger to anyone else and to maximize the opportunity to cut off escape by the traffickers and to make sure that we could assure the safety of those young girls and boys that we were liberating.    So we had set up on an island there the site for the party. The traffickers believed they were going to come and bring all of these young children to have a sex party with an affluent American businessman. Again, I was playing the role of the translator and bodyguard, the mean and menacing player, which I thought was a bit unfair. You see our law enforcement partners, including Coast Guard, local police, and CTI, very well coordinated. After months of work in excruciatingly detailed cooperation and coordination, we isolated the young ladies and the couple of young boys that were with them in one of those huts and transacted at the table, upon the successful transaction, the large amount of cash in exchange for the sex party. You will see law enforcement here now coming to take us down as we were posing as the sex participants and local law enforcement.    When they finished processing the traffickers, they allowed us to leave to head back to the airport. It was very touching to be able to say good-bye to those young girls knowing that many of them would be heading back home to families who had likely prayed for their safe return for a number of years. In other cases the families had no idea that they were actually being trafficked. They had been duped into thinking they were participating in a modeling agency. And so this is the type of work that Operation Underground Railroad does, very precise with buy-in from the highest levels of our sister nations. It is something that they welcome with the credit all going to their local law enforcement. And I will let Mr. Ballard finish out explaining more about that as I have a few more things to address before I summarize.    You see there, we saw up close the horror and helplessness in the eyes of your girls, ages 10 to 16, after the drugs that the traffickers had given them that very morning to take the edge off of what they were about to experience. And during those very moments now where it is being frozen around that table, they offered up these young girls as if they were desserts to be had for a minimal price. And the fear and, again, helplessness in their eyes was something I will never forget. Contrasted with the sense of liberation just a few minutes later and the hope that they had that they were going to potentially get home and be back safely with their parents.    All I can say is thank goodness that we were the ones there that day instead of real sex tourist predators. Not only did we liberate over 120 innocent girls and boys that day, cumulatively with the three missions that were done simultaneously and reunite them with families and get them much needed resources to start the long road to recovery, but again we trained local law enforcement with investigative techniques and software, and they have called us numerous times to report on their replication of other stings where they have taken down other traffickers and saved even more children.    People ask why the Utah attorney general went to Colombia. My reply, number one, because such a high percentage of those travelling abroad for sex parties are American. Some statistics suggest 80 percent or more of sex tourists may be American. I am embarrassed by that fact, that Americans provide such demand, and I feel a responsibility to remedy the scourge that my fellow countrymen have helped to create.    Secondly, helping to stop human trafficking no matter where it exists is vitally important, and to be clear, no State funds were used. I was not going down in my official capacity as the attorney general of Utah. In fact, nobody knew except for our closest law enforcement partners.    Three, and I think this is critical to this discussion, creating a firewall in countries like Colombia and the many other countries that OUR and other organizations like them have established to prevent future Victor Raxs from entering the shores of the United States and my State of Utah. Through the conference of Western Attorneys General, I and other State AGs have conducted bilateral training with AGs in Mexico and El Salvador to train and coordinate law enforcement resources; and I have met with the Ambassadors of Japan, Peru, the Philippines, and many others, including the Philippine Ambassador just again today to discuss further coordination and training. No leader with whom I have spoken from these countries is opposed to this even greater coordination as envisioned by the International Megan's Law. H.R. 515 also wisely provides for adding to the minimum standards for the principal diplomatic tool that the U.S. employs in this area, the Trafficking in Persons Report by our State Department, with its various tiers and incentives for our sister nations to achieve Tier 1 status.    So in summary, let me say thanks. International Megan's Law just makes sense. Codifying a requirement to alert law enforcement authorities in destination countries will allow our law enforcement partners worldwide to be more vigilant when known American child sex offenders are entering their countries, sometimes for legitimate travel, but too often for repeat offenses of child crimes, sex parties, and sex tours. And it will also provide law enforcement at the Federal, State, and local levels here in the United States, a much better chance to prevent domestic crimes when convicted child sexual abusers from other countries enter U.S. territory.    Fighting human trafficking is not a Republican issue or a Democrat issue. It is a humanitarian issue. It transcends any political differences or ideological divides. Its devastating reach grasps all walks of life and needs a united front for us to find success and give hope to victims and survivors worldwide.    I would urge the Senate and anyone listening to this hearing to support passage of this law and others aimed at curbing and eventually ending child sex trafficking. Thank you.</t>
   </si>
   <si>
@@ -94,6 +121,9 @@
     <t xml:space="preserve">    Mr. Reyes. Thank you, Mr. Chair.</t>
   </si>
   <si>
+    <t>Ballard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ballard. Good afternoon, Mr. Chair, and esteemed members of the subcommittee. Thank you very much for this opportunity.    My name is Tim Ballard. I am the founder and CEO of Operation Underground Railroad. I served for 12 years as a special agent for the Department of Homeland Security, where I served on the Internet Crimes Against Children Task Force and the Sex Tourism Jump Team. I worked as an undercover operative infiltrating organizations at home and abroad who were in the business of abusing children, sexually trafficking them.    In 2006 with the passage of the Adam Walsh Child Protection and Safety Act, Congress opened the doors for U.S. agents to better investigate these cases, especially internationally, and I was one of the first agents assigned to a team that would go out and use our undercover skills to infiltrate these organizations, looking for American travelers who were engaging in sex with children. I was proud to represent the United States in dealing with this horrific issue. However, I often felt helpless by the fact that the vast majority of the child victims that we would find fell outside the purview of the United States or for that matter any developed nation with the tools that could save them. Unless I could tie a U.S. traveler to the case, I would not be able to rescue the children, even the ones that we were able to identify as being victims. It is an issue of the sovereignty. It is outside of the jurisdiction, and I understood that. However, that doesn't mean that we couldn't be doing more.    As an agent, I once had the opportunity to work on a specific case in Colombia. I did my due diligence, and as a team we located children who were being trafficked. And again, we were told that if it was not going to end in a U.S. courtroom, that there were no resources available and there was little we could do except send a reference, and sometimes that is just not enough. And that was discouraging, and I grew frustrated being told no many times, though I understood, clearly understood the reasons why. Because of this I decided to leave and create Operation Underground Railroad, which we did last year.    We since went back to Colombia as a private organization, and as we have talked about and seen on the screens, we were able to pull off one of the largest rescue operations that we know about by setting up sting operations that consisted of ruse child sex parties. We were able to help the Colombians rescue more than 120 victims in 1 day. And to see these children, as young as 11 years old, to look into their eyes as they are tearful, scared to death, and knowing that they were lured out of this by various means.    This group in Colombia had actually hired a beauty queen from Cartagena who could lend credibility to their ruse and bring these children, and they told us as young as 9 years old, they started recruiting them to be models when, in fact, they were being sold and raped for money.    What is most interesting I think about this case in Colombia is that Homeland Security agents ended up arresting a American citizen named Dennis DeJesus. DeJesus caught wind of our fake sex party in Colombia and was heading down from Florida when U.S. agents arrested him. In the end, we got our American. Evidence concluded that DeJesus had produced child pornography and had traveled previously to Colombia in order to engage in sex with minors. DeJesus pled guilty to child sex crimes in a Federal court in Florida just a few weeks ago. This case proved that when engaging the problems of international child sex crimes, there is a good chance that a nexus to the United States will eventually be made.    However, I never would have be able to initiate this investigation as a U.S. agent due to the fact that the U.S. nexus did not appear until the end of the investigation. I also learned that once my team initiated this investigation, along with Columbian authorities, the U.S. Embassy and the Homeland Security Investigations, Bogota office, was more than happy to support the case. However, without our private efforts, the resources or the mandate to pull it off did not exist with United States assets. This is a matter of frustration to many of my former colleagues in the U.S. Government, these U.S. agents. They want to do more. They need resources to do more, more resources to do more.    The current approach by the U.S. Government to international child sex crimes could use some adjusting. More mechanisms need to be put into place so that the U.S. can better engage this problem. Oftentimes it feels like our policies and practices, though not our people or our Government agents, take a position that a foreign problem is simply not a U.S. problem. However, as the DeJesus case proves, when it comes to child sex crimes, this problem is international. And the fact that we are talking about child victims should cause us on a moral level to find ways to remove barriers that prevent international engagement. I have worked with many foreign governments, and I have never seen one that does not desire more U.S. involvement when it comes to these specific crimes against the most vulnerable souls on earth.    Speaking of International Megan's Law, H.R. 515, here is another opportunity, a wonderful opportunity, to attack this problem from a different angle. It will help bridge a serious gap. As a government agent, it was always frustrating to know that minus a crystal ball, it would always be a serious challenge to predict when a child sex traveler would cross our borders to engage in illicit sex with children. As quoted in the bill itself, legitimate studies have concluded that there are close to 2 million children in the world currently in the commercial sex trade; and the bill also points out that a significant amount of these travelers are from the United States. And I for one can testify, I know these stats are true because I have been working in this black market for more than 10 years.    In a sad commentary on our society, the reason our cover story has worked so well and has been so easily bought by perpetrators is due to the fact that we are Americans. These guys, these perpetrators are used to catering to Americans. They are used to selling children to Americans. This is an American problem no matter where on earth the child victim happens to be.    In this country we proudly work under Megan's Law as a means to encourage States to protect children by identifying and monitoring the whereabouts of child sex offenders. As a society we have accepted the fact that convicted sex offenders pose a great risk to children, and so we make their presence known. Of course, the question why would we not offer the same mechanism to our friends overseas? And I understand it has passed three times in the House. It is time to pass it in the Senate, and I hope that your colleagues in the Senate are listening, that they might hurry along.    We might picture a man who has been convicted of raping children in a foreign country. We might imagine that this man is coming for a visit to our towns, to our parks, and our neighborhoods where our children play. Would we not want to know this man's past? Of course, we would. And I assure you that our friends in other countries want this information as well, especially the would-be child victims of the crimes.    Advancing this bill is an opportunity to connect law enforcement agencies around the world by arming them with actionable intelligence that they can use to prevent child sex crimes from occurring. This bill talks about the Angel Watch Center. The Angel Watch Center will be a significant first step in bridging the gap between governments and nongovernment organizations like ours that have real experience in rescuing and rehabilitating victims of trafficking.    One of the great benefits of being an NGO is that it allows greater freedom for anti-child crimes experts to move about the world, plugging quickly into any government jurisdiction and rapidly bringing the tools to fight child crimes into the hands of government officials who need them. We are readily afforded access to information regarding child sex rings that is useful to combat these rings. One of the challenges for us of course is, establishing and maintaining direct relationships with government officials who need and want our services. Through the Angel Watch Center, this problem will be helped. This center will serve as a venue where a public-private partnership can more easily leverage all the intelligence, ideas, tools, and strategies to best protect children at home and abroad.    Speaking for my organization, we have physically rescued hundreds of victims in the last year alone. Advancing H.R. 515 and creating the Angel Watch Center, I believe, could double or triple that number for us, and that is just for us. Add to that the many other NGOs and other government agencies, foreign and domestic, that will participate in the Angel Watch Center, and we will be saving more children than ever before.    Let's not wait any longer to put this bill into law. The children are desperately waiting for us. I know this because I have seen them. Thank you very much for this opportunity.</t>
   </si>
   <si>
@@ -103,6 +133,9 @@
     <t xml:space="preserve">    Mr. Smith. Well now I will turn to Karla Jacinto, and I thank you for being here. Thank you.    [The following statement and answers were delivered through an interpreter.]</t>
   </si>
   <si>
+    <t>Jacinto</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jacinto. Mr. Chairman, and members of the subcommittee, thank you for taking the time to listen to my story. My name is Karla Jacinto and today I have a voice, but for more than 4 years of my life from the age of 12, as a little girl whose mother had thrown her out on the streets, open to anyone wanting to take advantage of my vulnerabilities, I fell prey to a professional pimp who after 3 months of wooing and me treating me as a princess, propped me up on a corner and forced me to work the streets for his own gain. For years and years I was coerced, intimidated, threatened, beaten, robbed of my children and emotionally and sexually violated time and time again.    During those years, I was forced to serve every type of fetish imaginable to more than 40,000 clients. Of those, many were foreigners visiting my city looking to have sexual interactions with minors like me.    Please try to put yourself in my shoes, broken, abandoned, violated, hurt, denigrated, and enslaved at a time when I should have been playing with dolls and looking forward to a fun day at school.    Today I am thankful to be able to stand before you as a reintegrated woman. At the age of 16, a man that had become a regular client was able to see beyond the short-term pleasure into the eyes of a broken girl. He helped me escape and I entered from the Fundacion Camino a Casa shelter. There I received the help, care, time, attention and love that I needed to put the broken pieces of my soul back together.    I also met Rosi Orozco, who has helped me grow into the activist I am today. I am 22, and for the last 5 years, my life has been dedicated to raising my voice to anyone willing to hear that we exist, that there are thousands of little girls in my country being used for the pleasure of those who only live for their own desires, economic gain, and exertion of power.    It is up to us, both governments and nongovernment organizations to work together to prevent this crime, punish those who commit them, to look and rescue for those who are already caught in the web, and to provide the care necessary for their healing and reintegration into a healthy society. No one person can do it himself or herself. We are all responsible. We are all affected, and we can all do something.    Today, your people have chosen you to have a position of influence that can truly make a difference. And I hope that my story will help you make some choices that will put a stop to this horrible crime. Thank you.</t>
   </si>
   <si>
@@ -112,6 +145,9 @@
     <t xml:space="preserve">    Mr. Smith. I would note for the record that C-SPAN is here which means that Americans will have the opportunity to hear all of your testimonies. And C-SPAN, you know, is independent. It does not cover every hearing. And I am very grateful that they are here so that your words will be heard by millions of Americans and people around the world. So thank you.    I would like to now introduce our final witness, Rosi Orozco, again a former deputy, author of landmark anti-human trafficking legislation in Mexico, and now the president of the Commission United vs. Trafficking.</t>
   </si>
   <si>
+    <t>Orozco</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Orozco. Mr. Chairman, and members of the subcommittee, thank you for this opportunity. Today I am here out of a profound sense of obligation to focus on the problem of sex trafficking, especially the reality of sexual tourism and child pornography. As you have heard, Karla was a victim of all these crimes at the age of 12. To establish some context, I will--I should explain a little bit of who I am. Thanks to the training I received from your Justice Department here in Washington, DC, 2005, all my life now has been dedicated to fight human trafficking. In all of its forms. But especially that of sexual exploitation of women and, of course, minors.    First, as a Congresswoman from 2009 to 2012 where I was the driving force to establish the general law to prevent, punish, and eradicate the offenses of trafficking in persons and to protect and assist the victims of these crimes. Since the law took effect in 2012, and with the leadership of our President Enrique Pena Nieto, and we have reported more than 200 convictions. Mexico now is the leader in the prosecution of these crimes in all Latin America. More recently, as the president of the NGO Commission United vs. Trafficking, we work in partnership with 97 other NGOs, and we have made sure that we communicate a clear message to every social, political, business, art, and international platform.    In Mexico, human beings are not for sale. And we will fight against anyone that acts against that fact. Today I am here representing every victim of slavery in my country. Sadly, Mexico is a country of origin, transient, and destination of human trafficking of women, men, and children, that are being exploited both in Mexico and the United States. It worries so much to all of our NGOs that there has been some intention in Congress in Mexico trying to knock down the law that protects the human rights of victims and punishes criminals. They will try again in September so we are working as NGOs to protect the good parts of our law, and reform the articles that could be better with some Congresspeople that are very committed against human trafficking.    According to the World Tourism Organization, and the International Labor Organization about 3 million people traveling the world look for travel-related opportunities to participate in sexual acts with children. Sexual tourism affects more than 2 million children that are obligated to prostitute themselves or work in the pornography industry. Sexual tourism is the principal motor behind child sexual exploitation. This is a phenomenon that in recent years has expanded exponentially throughout the world, especially in Asia, and Latin America with Mexico being one of the principal countries affected, especially in the northern border towns and beach cities.    Last year your own Homeland Security Department has situated Mexico as the number one distributor of child pornography in the world. This is largely due to the high demand. Studies demonstrate that most perpetrators are coming from the United States, England, Holland, and Germany. In a study done by the American Bar Association we know that 47 bands of human traffickers were identified in Mexico, of which the most renowned originate in the State of Tlaxcala, and are very well-known for importing their victims to the United States.    I urge you today to make sure that our country will continue working together to put a stop to the atrocity of human trafficking and in all its forms, all forms of human trafficking by refining our laws and committing to communicate and cooperate with each other. We can stop the criminalization of victims, work to push hard to strengthen the law against providers and consumers, ease the path for prosecution of cases, and provide the care that victims and their families needs to rebuild their lives.    We believe that we have been working very well with the Ambassador Anthony Wayne, even his wife is one of the wives of many of the Ambassadors that works with Fundacion Camino a Casa. Karlita herself has met her. The Polaris Project is doing a great job also in a partnership with Mexico now, and you have a great, great Attorney General, Loretta Lynch, who is called in Mexico, the nightmare of the pimps. And we also have a very good Attorney General who will be the nightmare of the pimps soon. She is new in office. And also, we have great police who are committed against these crimes.    In truth, my passion is to work directly with the beautiful girls that have suffered and been rescued from these horrific crimes. I have personally worked with more than 200 victims, shared their stories, and witnessed their struggle as they look to reveal their lives and heal from the worst pain that can be inflicted on a human being, the loss of their freedom and dignity. More than anything, they need all of us to be willing to fight for them and they deserve to be heard. Just think about this. Most of these girls were suffering from poverty, violence, lack of education, when they become targets of criminals that make them also to be their slaves. So when the heroes like the people of Operation Underground Railroad rescue them, as a society, we owe them very much. They didn't have what they deserve in our country. They deserve the food, the house, the security, and education. And then we see them as slaves. Thank you to people like the people that work in OUR, thank you for being heroes in other countries.    We need to work a complete process of reintegration from start to finish until they become successful people that we can all admire, like Karla, who is with me now today. She is a survivor of human trafficking. She was a sex slave between the ages of 12 to 16. Seven years ago, Karla was saved by a client who saw her beauty instead of his lust. And now she is a worldwide activist who has spoke twice in front of Pope Francis, has taken and shared her story with the Duchess of Cornwall, has been with the ex-President Felipe Calderon, and with Queen Noor of Jordan at the Trust Women Conference in London, among many other important people.    We believe that people like Karla, if we don't help them until they are successful, they could kill themselves, or become criminals. When she arrived to the shelter she was full of hate. Now she is full of love. We must work to break the vicious circle of lack of cooperation between authorities and NGOs. Our mistrust of the process that result of people failing to denounce the crime and failure to prosecution. Instead, we must create a virtuous cycle where authorities and NGOs like OUR work together, then provide a special and dedicated care to these teams until they become successful stories. We need to work together with survivors until they become people of admired by society. Only then will more people denounce the crime of human trafficking; only then will more criminals be prosecuted; only then will more victims be freed; and only then less and less people will look for slaves to satisfy their basic instincts.    Please, do not name the clients johns if they were like the clients that Karlita had. They are criminals. They are not johns like they were a nobody. We should treat them like criminals. Thank you so much for hearing us.</t>
   </si>
   <si>
@@ -130,6 +166,9 @@
     <t xml:space="preserve">    Mr. Smith. If I could, just because of time, we are joined by Mia Love, who is obviously from your State, and a very dedicated Member of the Congress, and caring about these issues, and then going to my Democrat colleague, Ms. Jackson Lee.</t>
   </si>
   <si>
+    <t>Love</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Love. I first of all just wanted to say thank you for the invite and letting me know that our attorney general and Mr. Ballard from Operation Underground Railroad is here. The work that they do is so incredibly important. It is something that is very important in the State of Utah, but also for our Nation and around the world.    This is not based on fiscal issues. This is not based on party issues. This is what we have to do, and that is you are protecting life, liberty, and the pursuit of happiness. This is a moral issue, and I wanted to say thank you so much for making this such an important part of what you do.    I have three children, two girls, one boy, and it makes me feel better as a parent knowing that there are some good people out there doing this work and making sure that the predators know that we will not rest. We will be diligent and we are watching them and we are putting them out of business. So from the bottom of my heart as a parent, as an American who cares about the children all around this world, thank you for the work that you do, and thank you for this committee for taking this issue so seriously.</t>
   </si>
   <si>
@@ -139,6 +178,9 @@
     <t xml:space="preserve">    Mr. Smith. Thank you. Ms. Jackson Lee.</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Well, first of all, let me thank you for the courtesies extended by both the chairman and the ranking member. Thank you so very much. Quickly to the witnesses, let me thank you for your testimony. I just briefly will indicate and ask a question, and then hopefully it will go on the record. I am the ranking member on the Crime Subcommittee. We want to make sure that we have some collaboration with the Foreign Affairs Committee for filling in the holes. So my question would be, there seems to be a gap as to dealing with those who are not connected to the United States. We deal with sex trafficking as the buyer, the victim, and maybe in the State. And so my question would be general, and of course to our Congressperson, how do we deal internationally? How do you make sure if there is an international issue in New Jersey that you either connect Federally or that your laws allow you to reach to be able to ensure that their dastardly works are not impacting New Jerseyites, people from Utah, and fill in that gap that we don't miss those who are trying to do devastating things to children.    Lastly, I always mention Boko Haram, way, way, far away, but, you know the dastardly things they have done by kidnapping girls and we believe it has an international effect. So thank you so very much for your service.</t>
   </si>
   <si>
@@ -173,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will resume its sitting, and I do want to apologize again for the delay to our distinguished witnesses as well as to the audience. We are joined by Ann Wagner, a distinguished Member of the House of Representatives from Missouri, who wrote a major bill that has passed the House, is likely to be back in the House after being through the Senate, that criminalizes advertising. And I would like to yield to my good friend and colleague for any comments about her bill which I think will make a huge difference, and any questions that she might have of our panel.</t>
+  </si>
+  <si>
+    <t>Wagner</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Wagner. Well, I thank you, Mr. Chairman, and I thank you for a lifetime of leadership on this issue for all of those giving a voice to the most vulnerable and those who are oftentimes voiceless. I served 4 years as a United States Ambassador in Western Europe, and was very familiar with human trafficking vis-a-vis the international aspect of things. But I will tell you, it wasn't until I came home to my own country in 2009, decided to run for office myself, put my own name on the yard sign, dug into a few things, and realized how prevalent this scourge, this modern-day slavery is, and the prevalence here domestically in our own country.    This is, domestically, a $9.5 billion business. There are upwards, according to the Justice Department, of 300,000, mostly young girls, at risk for this. And we as a Congress, other than reauthorizing the fantastic work that Chairman Smith has done, really had not gotten up to date on some of the new technologies, and the new things going on over the last decade, so I brought this up. I am on the Financial Services Committee. I do a lot in defense, and veterans issues, but this, this, fighting this scourge of human trafficking and sex slavery is a passion of mine. And so we went forward, introduced several pieces of legislation last Congress. I can tell you in January, along with Chairman Smith's bill and many others, we passed 12 pieces of legislation for human trafficking in January out of the House of Representatives. The Senate has taken a number of them up. They worked things out and four of those will be coming back to us next week which we were very excited about; things that will bolster law enforcement, and prosecutors, and give you, sir----</t>
@@ -623,7 +668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +676,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,1733 +698,2022 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94608.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94608.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412404</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Bass</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t>412604</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Clawson</t>
@@ -668,7 +680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +688,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,2019 +713,2164 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>71</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>67</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>39</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>43</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
